--- a/backend/template/tracework_migrate_data_format/Tracework_migrate_data_format.xlsx
+++ b/backend/template/tracework_migrate_data_format/Tracework_migrate_data_format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,12 +12,12 @@
     <sheet name="action_code" sheetId="3" r:id="rId3"/>
     <sheet name="result_code" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>resultText</t>
   </si>
@@ -106,9 +106,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>actionCode_formula</t>
-  </si>
-  <si>
     <t>resultCode_formula</t>
   </si>
   <si>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>1000000003</t>
+  </si>
+  <si>
+    <t>actionCode_formula_(match-index)</t>
+  </si>
+  <si>
+    <t>actionCode_formula_vlookup</t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,6 +278,10 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +377,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,22 +597,23 @@
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="18" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="30" style="9" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="33.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="9" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="10" customWidth="1"/>
+    <col min="15" max="15" width="27.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="33.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -609,49 +623,52 @@
       <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>18</v>
@@ -659,243 +676,263 @@
       <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="14" t="str">
+        <f>INDEX(action_code!B2:B6,MATCH(B2, action_code!A2:A6, 0))</f>
+        <v>5899a03036df2097bf2650db</v>
+      </c>
+      <c r="E2" s="9" t="str">
         <f>VLOOKUP(B2,action_code!A:B,2, FALSE)</f>
         <v>5899a03036df2097bf2650db</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="F2" s="9" t="str">
         <f>VLOOKUP(C2,result_code!A:B,2, FALSE)</f>
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="11">
+      <c r="J2" s="11">
         <v>42791.356388888889</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="10" t="str">
-        <f>VLOOKUP(M2,Users!A:B,2,FALSE)</f>
+      <c r="O2" s="10" t="str">
+        <f>VLOOKUP(N2,Users!A:B,2,FALSE)</f>
         <v>57b5581f63c088a273c8d3a4</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="12">
+      <c r="Q2" s="12">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="14" t="str">
+        <f>INDEX(action_code!B3:B7,MATCH(B3, action_code!A3:A7, 0))</f>
+        <v>58ad35b1ffdf1b30a63b9745</v>
+      </c>
+      <c r="E3" s="9" t="str">
         <f>VLOOKUP(B3,action_code!A:B,2, FALSE)</f>
         <v>58ad35b1ffdf1b30a63b9745</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="F3" s="9" t="str">
         <f>VLOOKUP(C3,result_code!A:B,2, FALSE)</f>
         <v>5899a04636df2097bf2650de</v>
       </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="11">
         <v>42791.356388888889</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="10" t="str">
-        <f>VLOOKUP(M3,Users!A:B,2,FALSE)</f>
+      <c r="O3" s="10" t="str">
+        <f>VLOOKUP(N3,Users!A:B,2,FALSE)</f>
         <v>57b5587363c088a273c8d3a5</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="12">
+      <c r="Q3" s="12">
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="14" t="str">
+        <f>INDEX(action_code!B4:B8,MATCH(B4, action_code!A4:A8, 0))</f>
+        <v>58ad35b6ffdf1b30a63b9746</v>
+      </c>
+      <c r="E4" s="9" t="str">
         <f>VLOOKUP(B4,action_code!A:B,2, FALSE)</f>
         <v>58ad35b6ffdf1b30a63b9746</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="F4" s="9" t="str">
         <f>VLOOKUP(C4,result_code!A:B,2, FALSE)</f>
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="11">
         <v>42791.356388888889</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="10" t="str">
-        <f>VLOOKUP(M4,Users!A:B,2,FALSE)</f>
+      <c r="O4" s="10" t="str">
+        <f>VLOOKUP(N4,Users!A:B,2,FALSE)</f>
         <v>57b5587363c088a273c8d3a5</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="12">
+      <c r="Q4" s="12">
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="14" t="str">
+        <f>INDEX(action_code!B5:B9,MATCH(B5, action_code!A5:A9, 0))</f>
+        <v>58ad35beffdf1b30a63b9747</v>
+      </c>
+      <c r="E5" s="9" t="str">
         <f>VLOOKUP(B5,action_code!A:B,2, FALSE)</f>
         <v>58ad35beffdf1b30a63b9747</v>
       </c>
-      <c r="E5" s="9" t="str">
+      <c r="F5" s="9" t="str">
         <f>VLOOKUP(C5,result_code!A:B,2, FALSE)</f>
         <v>5899a04636df2097bf2650de</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
       <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="11">
         <v>42791.356388888889</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="10" t="str">
-        <f>VLOOKUP(M5,Users!A:B,2,FALSE)</f>
+      <c r="O5" s="10" t="str">
+        <f>VLOOKUP(N5,Users!A:B,2,FALSE)</f>
         <v>57b5587363c088a273c8d3a5</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Q5" s="12">
         <v>503</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="14" t="str">
+        <f>INDEX(action_code!B6:B10,MATCH(B6, action_code!A6:A10, 0))</f>
+        <v>58ad35cbffdf1b30a63b9748</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f>VLOOKUP(B6,action_code!A:B,2, FALSE)</f>
         <v>58ad35cbffdf1b30a63b9748</v>
       </c>
-      <c r="E6" s="9" t="str">
+      <c r="F6" s="9" t="str">
         <f>VLOOKUP(C6,result_code!A:B,2, FALSE)</f>
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="11">
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="11">
         <v>42791.356388888889</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="10" t="str">
-        <f>VLOOKUP(M6,Users!A:B,2,FALSE)</f>
+      <c r="O6" s="10" t="str">
+        <f>VLOOKUP(N6,Users!A:B,2,FALSE)</f>
         <v>57b5581f63c088a273c8d3a4</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="12">
+      <c r="Q6" s="12">
         <v>504</v>
       </c>
     </row>
@@ -980,34 +1017,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/template/tracework_migrate_data_format/Tracework_migrate_data_format.xlsx
+++ b/backend/template/tracework_migrate_data_format/Tracework_migrate_data_format.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,7 +12,7 @@
     <sheet name="action_code" sheetId="3" r:id="rId3"/>
     <sheet name="result_code" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -106,9 +106,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>resultCode_formula</t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>a4</t>
   </si>
   <si>
-    <t>createdBy_formula</t>
-  </si>
-  <si>
     <t>58ad35b1ffdf1b30a63b9745</t>
   </si>
   <si>
@@ -164,13 +158,19 @@
   </si>
   <si>
     <t>actionCode_formula_vlookup</t>
+  </si>
+  <si>
+    <t>resultCode_formula_(match-index)</t>
+  </si>
+  <si>
+    <t>createdBy_formula_(match-index)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +178,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +203,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -249,10 +261,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -262,28 +275,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,103 +600,103 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="9" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="20.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="27.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="str">
-        <f>INDEX(action_code!B2:B6,MATCH(B2, action_code!A2:A6, 0))</f>
-        <v>5899a03036df2097bf2650db</v>
-      </c>
-      <c r="E2" s="9" t="str">
+      <c r="D2" s="5" t="str">
         <f>VLOOKUP(B2,action_code!A:B,2, FALSE)</f>
         <v>5899a03036df2097bf2650db</v>
       </c>
+      <c r="E2" s="9" t="str">
+        <f>INDEX(action_code!B:B,MATCH(B2, action_code!A:A, 0))</f>
+        <v>5899a03036df2097bf2650db</v>
+      </c>
       <c r="F2" s="9" t="str">
-        <f>VLOOKUP(C2,result_code!A:B,2, FALSE)</f>
+        <f>INDEX(result_code!B:B,MATCH(C2, result_code!A:A, 0))</f>
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
       <c r="G2" t="s">
@@ -697,7 +708,7 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="7">
         <v>42791.356388888889</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -706,17 +717,17 @@
       <c r="M2" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="10" t="str">
-        <f>VLOOKUP(N2,Users!A:B,2,FALSE)</f>
+      <c r="O2" s="6" t="str">
+        <f>INDEX(Users!B:B,MATCH(N2, Users!A:A, 0))</f>
         <v>57b5581f63c088a273c8d3a4</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="8">
         <v>500</v>
       </c>
     </row>
@@ -724,34 +735,34 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="str">
-        <f>INDEX(action_code!B3:B7,MATCH(B3, action_code!A3:A7, 0))</f>
-        <v>58ad35b1ffdf1b30a63b9745</v>
-      </c>
-      <c r="E3" s="9" t="str">
+      <c r="D3" s="5" t="str">
         <f>VLOOKUP(B3,action_code!A:B,2, FALSE)</f>
         <v>58ad35b1ffdf1b30a63b9745</v>
       </c>
+      <c r="E3" s="9" t="str">
+        <f>INDEX(action_code!B:B,MATCH(B3, action_code!A:A, 0))</f>
+        <v>58ad35b1ffdf1b30a63b9745</v>
+      </c>
       <c r="F3" s="9" t="str">
-        <f>VLOOKUP(C3,result_code!A:B,2, FALSE)</f>
+        <f>INDEX(result_code!B:B,MATCH(C3, result_code!A:A, 0))</f>
         <v>5899a04636df2097bf2650de</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="11">
+        <v>41</v>
+      </c>
+      <c r="J3" s="7">
         <v>42791.356388888889</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -760,52 +771,52 @@
       <c r="M3" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="10" t="str">
-        <f>VLOOKUP(N3,Users!A:B,2,FALSE)</f>
+      <c r="O3" s="6" t="str">
+        <f>INDEX(Users!B:B,MATCH(N3, Users!A:A, 0))</f>
         <v>57b5587363c088a273c8d3a5</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="8">
         <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14" t="str">
-        <f>INDEX(action_code!B4:B8,MATCH(B4, action_code!A4:A8, 0))</f>
-        <v>58ad35b6ffdf1b30a63b9746</v>
+      <c r="D4" s="5" t="str">
+        <f>VLOOKUP(B4,action_code!A:B,2, FALSE)</f>
+        <v>58ad35cbffdf1b30a63b9748</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f>VLOOKUP(B4,action_code!A:B,2, FALSE)</f>
-        <v>58ad35b6ffdf1b30a63b9746</v>
+        <f>INDEX(action_code!B:B,MATCH(B4, action_code!A:A, 0))</f>
+        <v>58ad35cbffdf1b30a63b9748</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f>VLOOKUP(C4,result_code!A:B,2, FALSE)</f>
+        <f>INDEX(result_code!B:B,MATCH(C4, result_code!A:A, 0))</f>
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="11">
+        <v>42</v>
+      </c>
+      <c r="J4" s="7">
         <v>42791.356388888889</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -814,52 +825,52 @@
       <c r="M4" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="10" t="str">
-        <f>VLOOKUP(N4,Users!A:B,2,FALSE)</f>
+      <c r="O4" s="6" t="str">
+        <f>INDEX(Users!B:B,MATCH(N4, Users!A:A, 0))</f>
         <v>57b5587363c088a273c8d3a5</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="8">
         <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="14" t="str">
-        <f>INDEX(action_code!B5:B9,MATCH(B5, action_code!A5:A9, 0))</f>
-        <v>58ad35beffdf1b30a63b9747</v>
-      </c>
-      <c r="E5" s="9" t="str">
+      <c r="D5" s="5" t="str">
         <f>VLOOKUP(B5,action_code!A:B,2, FALSE)</f>
         <v>58ad35beffdf1b30a63b9747</v>
       </c>
+      <c r="E5" s="9" t="str">
+        <f>INDEX(action_code!B:B,MATCH(B5, action_code!A:A, 0))</f>
+        <v>58ad35beffdf1b30a63b9747</v>
+      </c>
       <c r="F5" s="9" t="str">
-        <f>VLOOKUP(C5,result_code!A:B,2, FALSE)</f>
+        <f>INDEX(result_code!B:B,MATCH(C5, result_code!A:A, 0))</f>
         <v>5899a04636df2097bf2650de</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="11">
+        <v>43</v>
+      </c>
+      <c r="J5" s="7">
         <v>42791.356388888889</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -868,52 +879,52 @@
       <c r="M5" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="10" t="str">
-        <f>VLOOKUP(N5,Users!A:B,2,FALSE)</f>
+      <c r="O5" s="6" t="str">
+        <f>INDEX(Users!B:B,MATCH(N5, Users!A:A, 0))</f>
         <v>57b5587363c088a273c8d3a5</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14" t="str">
-        <f>INDEX(action_code!B6:B10,MATCH(B6, action_code!A6:A10, 0))</f>
-        <v>58ad35cbffdf1b30a63b9748</v>
+      <c r="D6" s="5" t="str">
+        <f>VLOOKUP(B6,action_code!A:B,2, FALSE)</f>
+        <v>5899a03036df2097bf2650db</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f>VLOOKUP(B6,action_code!A:B,2, FALSE)</f>
-        <v>58ad35cbffdf1b30a63b9748</v>
+        <f>INDEX(action_code!B:B,MATCH(B6, action_code!A:A, 0))</f>
+        <v>5899a03036df2097bf2650db</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f>VLOOKUP(C6,result_code!A:B,2, FALSE)</f>
+        <f>INDEX(result_code!B:B,MATCH(C6, result_code!A:A, 0))</f>
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="11">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7">
         <v>42791.356388888889</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -922,17 +933,17 @@
       <c r="M6" s="2">
         <v>42788.356388888889</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="10" t="str">
-        <f>VLOOKUP(N6,Users!A:B,2,FALSE)</f>
+      <c r="O6" s="6" t="str">
+        <f>INDEX(Users!B:B,MATCH(N6, Users!A:A, 0))</f>
         <v>57b5581f63c088a273c8d3a4</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="8">
         <v>504</v>
       </c>
     </row>
@@ -1017,34 +1028,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/backend/template/tracework_migrate_data_format/Tracework_migrate_data_format.xlsx
+++ b/backend/template/tracework_migrate_data_format/Tracework_migrate_data_format.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="trace_result" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="action_code" sheetId="3" r:id="rId3"/>
     <sheet name="result_code" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -85,12 +86,6 @@
     <t>5899a04636df2097bf2650de</t>
   </si>
   <si>
-    <t>actionCode</t>
-  </si>
-  <si>
-    <t>resultCode</t>
-  </si>
-  <si>
     <t>resultCode_name</t>
   </si>
   <si>
@@ -164,6 +159,12 @@
   </si>
   <si>
     <t>createdBy_formula_(match-index)</t>
+  </si>
+  <si>
+    <t>actionCode_objectId</t>
+  </si>
+  <si>
+    <t>resultCode_objectId</t>
   </si>
 </sst>
 </file>
@@ -353,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" s="11" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>4</v>
@@ -665,10 +666,10 @@
         <v>2</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>3</v>
@@ -679,13 +680,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="str">
         <f>VLOOKUP(B2,action_code!A:B,2, FALSE)</f>
@@ -703,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
@@ -736,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
@@ -754,13 +755,13 @@
         <v>5899a04636df2097bf2650de</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="7">
         <v>42791.356388888889</v>
@@ -787,13 +788,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>VLOOKUP(B4,action_code!A:B,2, FALSE)</f>
@@ -808,13 +809,13 @@
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J4" s="7">
         <v>42791.356388888889</v>
@@ -841,10 +842,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -862,13 +863,13 @@
         <v>5899a04636df2097bf2650de</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="7">
         <v>42791.356388888889</v>
@@ -895,13 +896,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>VLOOKUP(B6,action_code!A:B,2, FALSE)</f>
@@ -916,13 +917,13 @@
         <v>58ad0872ffdff07e5c4d238e</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J6" s="7">
         <v>42791.356388888889</v>
@@ -1028,34 +1029,34 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1095,10 +1096,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
